--- a/Cyberz/Montecarlo_Tokenomics/Results.xlsx
+++ b/Cyberz/Montecarlo_Tokenomics/Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://puig-my.sharepoint.com/personal/pol_costas_puig_es/Documents/Escritorio/Python/General_Scripts/Personal/wip-codes/Cyberz/Montecarlo_Tokenomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="11_F25DC773A252ABDACC104865D99D76185BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FDC293D-F420-4E10-BF2E-129D0B415D19}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="11_F25DC773A252ABDACC104865D99D76185BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B49651F7-A7BA-4134-A210-69C92D173FE2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Bot Leveling and Earnings</t>
   </si>
@@ -72,6 +73,84 @@
   </si>
   <si>
     <t>Avg. Exp/h</t>
+  </si>
+  <si>
+    <t>$BIT</t>
+  </si>
+  <si>
+    <t>Level 6: 1973.76 $BITs</t>
+  </si>
+  <si>
+    <t>Level 7: 2195.05 $BITs</t>
+  </si>
+  <si>
+    <t>Level 8: 2563.87 $BITs</t>
+  </si>
+  <si>
+    <t>Level 9: 3080.21 $BITs</t>
+  </si>
+  <si>
+    <t>Level 10: 3744.08 $BITs</t>
+  </si>
+  <si>
+    <t>Level 11: 4555.47 $BITs</t>
+  </si>
+  <si>
+    <t>Level 12: 5514.39 $BITs</t>
+  </si>
+  <si>
+    <t>Level 13: 6620.84 $BITs</t>
+  </si>
+  <si>
+    <t>Level 14: 7874.81 $BITs</t>
+  </si>
+  <si>
+    <t>Level 15: 9276.31 $BITs</t>
+  </si>
+  <si>
+    <t>Level 16: 10825.33 $BITs</t>
+  </si>
+  <si>
+    <t>Level 17: 12521.88 $BITs</t>
+  </si>
+  <si>
+    <t>Level 18: 14365.96 $BITs</t>
+  </si>
+  <si>
+    <t>Level 19: 16357.56 $BITs</t>
+  </si>
+  <si>
+    <t>Level 20: 18496.69 $BITs</t>
+  </si>
+  <si>
+    <t>Level 21: 20783.34 $BITs</t>
+  </si>
+  <si>
+    <t>Level 22: 23217.53 $BITs</t>
+  </si>
+  <si>
+    <t>Level 23: 25799.23 $BITs</t>
+  </si>
+  <si>
+    <t>Level 24: 28528.47 $BITs</t>
+  </si>
+  <si>
+    <t>Level 25: 31405.23 $BITs</t>
+  </si>
+  <si>
+    <t>Level 1: 0.00 $BITs</t>
+  </si>
+  <si>
+    <t>Level 2: 300.00 $BITs</t>
+  </si>
+  <si>
+    <t>Level 3: 650.00 $BITs</t>
+  </si>
+  <si>
+    <t>Level 4: 1100.00 $BITs</t>
+  </si>
+  <si>
+    <t>Level 5: 1800.00 $BITs</t>
   </si>
 </sst>
 </file>
@@ -117,11 +196,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,25 +487,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -432,7 +513,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -449,7 +530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -468,8 +549,12 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="3">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -491,8 +576,12 @@
         <f>E6/24</f>
         <v>0.50403225806451613</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="3">
+        <f>G5+E6</f>
+        <v>12.096774193548386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -514,8 +603,12 @@
         <f t="shared" ref="F7:F29" si="2">E7/24</f>
         <v>1.0080645161290323</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="3">
+        <f t="shared" ref="G7:G29" si="3">G6+E7</f>
+        <v>36.29032258064516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -537,8 +630,12 @@
         <f t="shared" si="2"/>
         <v>1.5120967741935483</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="3">
+        <f t="shared" si="3"/>
+        <v>72.58064516129032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -560,8 +657,12 @@
         <f t="shared" si="2"/>
         <v>2.3521505376344085</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="3">
+        <f t="shared" si="3"/>
+        <v>129.03225806451613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -583,8 +684,12 @@
         <f t="shared" si="2"/>
         <v>1.7221102150537633</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="3">
+        <f t="shared" si="3"/>
+        <v>170.36290322580646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -606,8 +711,12 @@
         <f t="shared" si="2"/>
         <v>1.8397177419354838</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="3">
+        <f t="shared" si="3"/>
+        <v>214.51612903225808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -629,8 +738,12 @@
         <f t="shared" si="2"/>
         <v>1.9741263440860213</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="3">
+        <f t="shared" si="3"/>
+        <v>261.89516129032256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -652,8 +765,12 @@
         <f t="shared" si="2"/>
         <v>2.150537634408602</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="3">
+        <f t="shared" si="3"/>
+        <v>313.50806451612902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -675,8 +792,12 @@
         <f t="shared" si="2"/>
         <v>2.3689516129032255</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="3">
+        <f t="shared" si="3"/>
+        <v>370.36290322580646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -698,8 +819,12 @@
         <f t="shared" si="2"/>
         <v>2.6545698924731185</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>434.07258064516128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -721,8 +846,12 @@
         <f t="shared" si="2"/>
         <v>2.990591397849462</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>505.84677419354836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -744,8 +873,12 @@
         <f t="shared" si="2"/>
         <v>3.4106182795698925</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>587.70161290322574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -767,8 +900,12 @@
         <f t="shared" si="2"/>
         <v>3.9482526881720426</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>682.45967741935476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -790,8 +927,12 @@
         <f t="shared" si="2"/>
         <v>4.603494623655914</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>792.94354838709671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -813,8 +954,12 @@
         <f t="shared" si="2"/>
         <v>5.4435483870967749</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="3">
+        <f t="shared" si="3"/>
+        <v>923.58870967741927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -836,8 +981,12 @@
         <f t="shared" si="2"/>
         <v>6.510416666666667</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="3">
+        <f t="shared" si="3"/>
+        <v>1079.8387096774193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -859,8 +1008,12 @@
         <f t="shared" si="2"/>
         <v>7.854502688172043</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="3">
+        <f t="shared" si="3"/>
+        <v>1268.3467741935483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -882,8 +1035,12 @@
         <f t="shared" si="2"/>
         <v>9.593413978494624</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="3">
+        <f t="shared" si="3"/>
+        <v>1498.5887096774193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -905,8 +1062,12 @@
         <f t="shared" si="2"/>
         <v>11.844758064516128</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="3">
+        <f t="shared" si="3"/>
+        <v>1782.8629032258063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -928,8 +1089,12 @@
         <f t="shared" si="2"/>
         <v>14.768145161290322</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="3">
+        <f t="shared" si="3"/>
+        <v>2137.2983870967741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -951,8 +1116,12 @@
         <f t="shared" si="2"/>
         <v>18.623991935483868</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="3">
+        <f t="shared" si="3"/>
+        <v>2584.2741935483868</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -974,8 +1143,12 @@
         <f t="shared" si="2"/>
         <v>23.714717741935484</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="3">
+        <f t="shared" si="3"/>
+        <v>3153.4274193548385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -997,8 +1170,12 @@
         <f t="shared" si="2"/>
         <v>30.519153225806448</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="3">
+        <f t="shared" si="3"/>
+        <v>3885.8870967741932</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1019,6 +1196,24 @@
       <c r="F29" s="2">
         <f t="shared" si="2"/>
         <v>39.700940860215049</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="3"/>
+        <v>4838.7096774193542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>231488</v>
+      </c>
+      <c r="B34">
+        <f>A34/A35</f>
+        <v>13.441334099790387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>17222.099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1030,6 +1225,787 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8865C6-F556-482D-918B-1670F685E712}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <f>F2+E3</f>
+        <v>300</v>
+      </c>
+      <c r="G3" s="3">
+        <f>E3/13.2/24</f>
+        <v>0.94696969696969713</v>
+      </c>
+      <c r="H3" s="3">
+        <f>H2+G3</f>
+        <v>0.94696969696969713</v>
+      </c>
+      <c r="I3" s="2">
+        <f>G3/4</f>
+        <v>0.23674242424242428</v>
+      </c>
+      <c r="J3" s="2">
+        <f>J2+I3</f>
+        <v>0.23674242424242428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>650</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F26" si="0">F3+E4</f>
+        <v>950</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G26" si="1">E4/13.2/24</f>
+        <v>2.0517676767676769</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H26" si="2">H3+G4</f>
+        <v>2.9987373737373741</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I26" si="3">G4/4</f>
+        <v>0.51294191919191923</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J26" si="4">J3+I4</f>
+        <v>0.74968434343434354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1100</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222228</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4709595959595969</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.86805555555555569</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6177398989898992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1800</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3850</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>5.6818181818181825</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>12.152777777777779</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4204545454545456</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>3.0381944444444446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1975</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>5825</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>6.2342171717171722</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>18.386994949494952</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>1.558554292929293</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
+        <v>4.5967487373737379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>2200</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>8025</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444455</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>25.331439393939398</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7361111111111114</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
+        <v>6.3328598484848495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2565</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>10590</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0965909090909101</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>33.428030303030312</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0241477272727275</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
+        <v>8.3570075757575779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>3080</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>13670</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>9.7222222222222232</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>43.150252525252533</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>2.4305555555555558</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
+        <v>10.787563131313133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>3745</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>17415</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>11.821338383838386</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>54.971590909090921</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>2.9553345959595965</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>13.74289772727273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>4555</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>21970</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>14.378156565656568</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>69.349747474747488</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5945391414141419</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
+        <v>17.337436868686872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>5515</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>27485</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>17.408459595959595</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>86.758207070707087</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3521148989898988</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="4"/>
+        <v>21.689551767676772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>6620</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>34105</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>20.896464646464647</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>107.65467171717174</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2241161616161618</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="4"/>
+        <v>26.913667929292934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>7875</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>41980</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>24.857954545454547</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>132.51262626262627</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>6.2144886363636367</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="4"/>
+        <v>33.128156565656568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>9275</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>51255</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>29.277146464646467</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>161.78977272727275</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>7.3192866161616168</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="4"/>
+        <v>40.447443181818187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>10825</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>62080</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>34.169823232323232</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>195.95959595959599</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="3"/>
+        <v>8.542455808080808</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="4"/>
+        <v>48.989898989898997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>12520</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>74600</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>39.520202020202021</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="2"/>
+        <v>235.47979797979801</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="3"/>
+        <v>9.8800505050505052</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="4"/>
+        <v>58.869949494949502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>14365</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>88965</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>45.344065656565654</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="2"/>
+        <v>280.82386363636368</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>11.336016414141413</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="4"/>
+        <v>70.205965909090921</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>16355</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>105320</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>51.625631313131315</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>332.44949494949498</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
+        <v>12.906407828282829</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="4"/>
+        <v>83.112373737373744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>18495</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>123815</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>58.38068181818182</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>390.83017676767679</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="3"/>
+        <v>14.595170454545455</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="4"/>
+        <v>97.707544191919197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>20780</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>144595</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>65.593434343434339</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="2"/>
+        <v>456.42361111111114</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="3"/>
+        <v>16.398358585858585</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="4"/>
+        <v>114.10590277777779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>23215</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>167810</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>73.279671717171723</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="2"/>
+        <v>529.70328282828291</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="3"/>
+        <v>18.319917929292931</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="4"/>
+        <v>132.42582070707073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>23215</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>191025</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>73.279671717171723</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="2"/>
+        <v>602.98295454545462</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>18.319917929292931</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="4"/>
+        <v>150.74573863636365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>28525</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>219550</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>90.041035353535349</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="2"/>
+        <v>693.02398989898995</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>22.510258838383837</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="4"/>
+        <v>173.25599747474749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>31400</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>250950</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>99.116161616161619</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="2"/>
+        <v>792.14015151515162</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>24.779040404040405</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="4"/>
+        <v>198.0350378787879</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6d874a0c-7cde-47e4-918d-86d77bc75633}" enabled="0" method="" siteId="{6d874a0c-7cde-47e4-918d-86d77bc75633}" removed="1"/>

--- a/Cyberz/Montecarlo_Tokenomics/Results.xlsx
+++ b/Cyberz/Montecarlo_Tokenomics/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://puig-my.sharepoint.com/personal/pol_costas_puig_es/Documents/Escritorio/Python/General_Scripts/Personal/wip-codes/Cyberz/Montecarlo_Tokenomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="11_F25DC773A252ABDACC104865D99D76185BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B49651F7-A7BA-4134-A210-69C92D173FE2}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="11_F25DC773A252ABDACC104865D99D76185BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4D9DDE6-A2D6-431D-8C13-50A3E0592D19}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,10 +218,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1219,9 +1215,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
-  </customProperties>
 </worksheet>
 </file>
 
@@ -1230,7 +1223,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,27 +1906,27 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>23215</v>
+        <v>25800</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>191025</v>
+        <v>193610</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="1"/>
-        <v>73.279671717171723</v>
+        <v>81.439393939393952</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="2"/>
-        <v>602.98295454545462</v>
+        <v>611.1426767676769</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="3"/>
-        <v>18.319917929292931</v>
+        <v>20.359848484848488</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="4"/>
-        <v>150.74573863636365</v>
+        <v>152.78566919191923</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1948,7 +1941,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>219550</v>
+        <v>222135</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="1"/>
@@ -1956,7 +1949,7 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" si="2"/>
-        <v>693.02398989898995</v>
+        <v>701.18371212121224</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="3"/>
@@ -1964,7 +1957,7 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="4"/>
-        <v>173.25599747474749</v>
+        <v>175.29592803030306</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1979,7 +1972,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>250950</v>
+        <v>253535</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="1"/>
@@ -1987,7 +1980,7 @@
       </c>
       <c r="H26" s="3">
         <f t="shared" si="2"/>
-        <v>792.14015151515162</v>
+        <v>800.2998737373739</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="3"/>
@@ -1995,13 +1988,14 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="4"/>
-        <v>198.0350378787879</v>
+        <v>200.07496843434348</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>
